--- a/results/mp/tinybert/corona/confidence/126/stop-words-masking-0.2/avg_0.003_scores.xlsx
+++ b/results/mp/tinybert/corona/confidence/126/stop-words-masking-0.2/avg_0.003_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="81">
   <si>
     <t>anchor score</t>
   </si>
@@ -43,54 +43,42 @@
     <t>crude</t>
   </si>
   <si>
-    <t>died</t>
-  </si>
-  <si>
     <t>fraud</t>
   </si>
   <si>
+    <t>warning</t>
+  </si>
+  <si>
     <t>crisis</t>
   </si>
   <si>
     <t>forced</t>
   </si>
   <si>
-    <t>collapse</t>
-  </si>
-  <si>
-    <t>fuck</t>
-  </si>
-  <si>
-    <t>shit</t>
-  </si>
-  <si>
     <t>war</t>
   </si>
   <si>
     <t>emergency</t>
   </si>
   <si>
+    <t>panic</t>
+  </si>
+  <si>
+    <t>low</t>
+  </si>
+  <si>
+    <t>drop</t>
+  </si>
+  <si>
     <t>risk</t>
   </si>
   <si>
-    <t>panic</t>
-  </si>
-  <si>
-    <t>fears</t>
-  </si>
-  <si>
-    <t>shortage</t>
-  </si>
-  <si>
-    <t>low</t>
+    <t>sc</t>
   </si>
   <si>
     <t>empty</t>
   </si>
   <si>
-    <t>sc</t>
-  </si>
-  <si>
     <t>stop</t>
   </si>
   <si>
@@ -100,25 +88,40 @@
     <t>negative</t>
   </si>
   <si>
+    <t>friend</t>
+  </si>
+  <si>
+    <t>interesting</t>
+  </si>
+  <si>
+    <t>happy</t>
+  </si>
+  <si>
+    <t>strong</t>
+  </si>
+  <si>
     <t>best</t>
   </si>
   <si>
     <t>love</t>
   </si>
   <si>
-    <t>interesting</t>
+    <t>great</t>
   </si>
   <si>
     <t>nice</t>
   </si>
   <si>
-    <t>happy</t>
-  </si>
-  <si>
-    <t>great</t>
-  </si>
-  <si>
-    <t>strong</t>
+    <t>heroes</t>
+  </si>
+  <si>
+    <t>positive</t>
+  </si>
+  <si>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>ensure</t>
   </si>
   <si>
     <t>special</t>
@@ -127,145 +130,130 @@
     <t>thanks</t>
   </si>
   <si>
-    <t>boost</t>
-  </si>
-  <si>
     <t>safe</t>
   </si>
   <si>
-    <t>thank</t>
-  </si>
-  <si>
-    <t>positive</t>
-  </si>
-  <si>
-    <t>ensure</t>
-  </si>
-  <si>
     <t>free</t>
   </si>
   <si>
-    <t>heroes</t>
-  </si>
-  <si>
     <t>healthy</t>
   </si>
   <si>
     <t>friends</t>
   </si>
   <si>
+    <t>support</t>
+  </si>
+  <si>
     <t>safety</t>
   </si>
   <si>
-    <t>support</t>
+    <t>better</t>
   </si>
   <si>
     <t>good</t>
   </si>
   <si>
-    <t>better</t>
+    <t>confidence</t>
   </si>
   <si>
     <t>well</t>
   </si>
   <si>
-    <t>confidence</t>
+    <t>fresh</t>
+  </si>
+  <si>
+    <t>hand</t>
+  </si>
+  <si>
+    <t>credit</t>
+  </si>
+  <si>
+    <t>energy</t>
+  </si>
+  <si>
+    <t>important</t>
+  </si>
+  <si>
+    <t>like</t>
   </si>
   <si>
     <t>relief</t>
   </si>
   <si>
-    <t>hand</t>
-  </si>
-  <si>
-    <t>clean</t>
-  </si>
-  <si>
-    <t>fresh</t>
-  </si>
-  <si>
-    <t>credit</t>
-  </si>
-  <si>
-    <t>like</t>
-  </si>
-  <si>
-    <t>important</t>
+    <t>join</t>
   </si>
   <si>
     <t>care</t>
   </si>
   <si>
-    <t>join</t>
-  </si>
-  <si>
-    <t>energy</t>
+    <t>save</t>
+  </si>
+  <si>
+    <t>alert</t>
+  </si>
+  <si>
+    <t>protect</t>
   </si>
   <si>
     <t>help</t>
   </si>
   <si>
+    <t>hope</t>
+  </si>
+  <si>
     <t>please</t>
   </si>
   <si>
+    <t>increase</t>
+  </si>
+  <si>
+    <t>key</t>
+  </si>
+  <si>
     <t>sure</t>
   </si>
   <si>
-    <t>protect</t>
-  </si>
-  <si>
-    <t>hope</t>
-  </si>
-  <si>
-    <t>alert</t>
-  </si>
-  <si>
-    <t>gt</t>
-  </si>
-  <si>
-    <t>increase</t>
-  </si>
-  <si>
     <t>share</t>
   </si>
   <si>
-    <t>give</t>
-  </si>
-  <si>
-    <t>essential</t>
+    <t>increased</t>
+  </si>
+  <si>
+    <t>shopping</t>
   </si>
   <si>
     <t>online</t>
   </si>
   <si>
-    <t>shopping</t>
+    <t>home</t>
   </si>
   <si>
     <t>new</t>
   </si>
   <si>
-    <t>home</t>
-  </si>
-  <si>
     <t>store</t>
   </si>
   <si>
+    <t>grocery</t>
+  </si>
+  <si>
     <t>stock</t>
   </si>
   <si>
-    <t>grocery</t>
-  </si>
-  <si>
     <t>consumer</t>
   </si>
   <si>
+    <t>19</t>
+  </si>
+  <si>
     <t>supermarket</t>
   </si>
   <si>
-    <t>19</t>
-  </si>
-  <si>
     <t>co</t>
+  </si>
+  <si>
+    <t>food</t>
   </si>
   <si>
     <t>corona</t>
@@ -634,10 +622,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="J1" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -695,13 +683,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.9705882352941176</v>
+        <v>0.9411764705882353</v>
       </c>
       <c r="C3">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D3">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -713,19 +701,19 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="K3">
-        <v>0.9661016949152542</v>
+        <v>1</v>
       </c>
       <c r="L3">
-        <v>57</v>
+        <v>19</v>
       </c>
       <c r="M3">
-        <v>57</v>
+        <v>19</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -737,7 +725,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -745,13 +733,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.8076923076923077</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="C4">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="D4">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -763,19 +751,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="K4">
-        <v>0.9565217391304348</v>
+        <v>0.9696969696969697</v>
       </c>
       <c r="L4">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="M4">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -787,7 +775,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -795,13 +783,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.8055555555555556</v>
+        <v>0.76</v>
       </c>
       <c r="C5">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="D5">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -813,19 +801,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="K5">
-        <v>0.9090909090909091</v>
+        <v>0.9615384615384616</v>
       </c>
       <c r="L5">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="M5">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -837,7 +825,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -845,13 +833,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.6986301369863014</v>
+        <v>0.6815068493150684</v>
       </c>
       <c r="C6">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="D6">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -863,19 +851,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="K6">
-        <v>0.8888888888888888</v>
+        <v>0.9545454545454546</v>
       </c>
       <c r="L6">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="M6">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -887,7 +875,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -895,13 +883,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.6896551724137931</v>
+        <v>0.6551724137931034</v>
       </c>
       <c r="C7">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D7">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -913,19 +901,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="K7">
-        <v>0.8846153846153846</v>
+        <v>0.9491525423728814</v>
       </c>
       <c r="L7">
-        <v>23</v>
+        <v>56</v>
       </c>
       <c r="M7">
-        <v>23</v>
+        <v>56</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -945,13 +933,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.6333333333333333</v>
+        <v>0.6052631578947368</v>
       </c>
       <c r="C8">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="D8">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -963,19 +951,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="K8">
-        <v>0.8839285714285714</v>
+        <v>0.9347826086956522</v>
       </c>
       <c r="L8">
-        <v>99</v>
+        <v>43</v>
       </c>
       <c r="M8">
-        <v>99</v>
+        <v>43</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -987,7 +975,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>13</v>
+        <v>3</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -995,13 +983,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.5641025641025641</v>
+        <v>0.4266666666666667</v>
       </c>
       <c r="C9">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="D9">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -1013,19 +1001,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>17</v>
+        <v>43</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="K9">
-        <v>0.8636363636363636</v>
+        <v>0.8660714285714286</v>
       </c>
       <c r="L9">
-        <v>19</v>
+        <v>97</v>
       </c>
       <c r="M9">
-        <v>19</v>
+        <v>97</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -1037,7 +1025,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>3</v>
+        <v>15</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1045,13 +1033,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.5384615384615384</v>
+        <v>0.3701550387596899</v>
       </c>
       <c r="C10">
-        <v>21</v>
+        <v>191</v>
       </c>
       <c r="D10">
-        <v>21</v>
+        <v>191</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1063,19 +1051,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>18</v>
+        <v>325</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="K10">
-        <v>0.8611111111111112</v>
+        <v>0.8518518518518519</v>
       </c>
       <c r="L10">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="M10">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1087,7 +1075,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1095,13 +1083,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.5263157894736842</v>
+        <v>0.3691275167785235</v>
       </c>
       <c r="C11">
-        <v>20</v>
+        <v>55</v>
       </c>
       <c r="D11">
-        <v>20</v>
+        <v>55</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1113,19 +1101,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>18</v>
+        <v>94</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="K11">
-        <v>0.8292682926829268</v>
+        <v>0.851063829787234</v>
       </c>
       <c r="L11">
-        <v>68</v>
+        <v>40</v>
       </c>
       <c r="M11">
-        <v>68</v>
+        <v>40</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1137,7 +1125,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>14</v>
+        <v>7</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1145,13 +1133,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.4133333333333333</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="C12">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="D12">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1163,19 +1151,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="K12">
-        <v>0.8260869565217391</v>
+        <v>0.8448275862068966</v>
       </c>
       <c r="L12">
-        <v>19</v>
+        <v>49</v>
       </c>
       <c r="M12">
-        <v>19</v>
+        <v>49</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1187,7 +1175,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>4</v>
+        <v>9</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1195,13 +1183,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.3766233766233766</v>
+        <v>0.2987012987012987</v>
       </c>
       <c r="C13">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="D13">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1213,19 +1201,19 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="K13">
-        <v>0.8028169014084507</v>
+        <v>0.8359375</v>
       </c>
       <c r="L13">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="M13">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1237,7 +1225,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>28</v>
+        <v>21</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1245,13 +1233,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.375968992248062</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="C14">
-        <v>194</v>
+        <v>54</v>
       </c>
       <c r="D14">
-        <v>194</v>
+        <v>54</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1263,19 +1251,19 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>322</v>
+        <v>135</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="K14">
-        <v>0.796875</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="L14">
-        <v>102</v>
+        <v>20</v>
       </c>
       <c r="M14">
-        <v>102</v>
+        <v>20</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1287,7 +1275,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>26</v>
+        <v>4</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1295,13 +1283,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.3725490196078431</v>
+        <v>0.2666666666666667</v>
       </c>
       <c r="C15">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="D15">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1313,19 +1301,19 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>32</v>
+        <v>66</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="K15">
-        <v>0.7931034482758621</v>
+        <v>0.8055555555555556</v>
       </c>
       <c r="L15">
-        <v>46</v>
+        <v>29</v>
       </c>
       <c r="M15">
-        <v>46</v>
+        <v>29</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1337,7 +1325,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>12</v>
+        <v>7</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1345,13 +1333,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.3559322033898305</v>
+        <v>0.1904761904761905</v>
       </c>
       <c r="C16">
-        <v>21</v>
+        <v>48</v>
       </c>
       <c r="D16">
-        <v>21</v>
+        <v>48</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1363,19 +1351,19 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>38</v>
+        <v>204</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="K16">
-        <v>0.7916666666666666</v>
+        <v>0.8048780487804879</v>
       </c>
       <c r="L16">
-        <v>19</v>
+        <v>66</v>
       </c>
       <c r="M16">
-        <v>19</v>
+        <v>66</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1387,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>5</v>
+        <v>16</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1395,13 +1383,13 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.3557046979865772</v>
+        <v>0.1099195710455764</v>
       </c>
       <c r="C17">
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="D17">
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1413,19 +1401,19 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>96</v>
+        <v>332</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="K17">
-        <v>0.7916666666666666</v>
+        <v>0.795774647887324</v>
       </c>
       <c r="L17">
-        <v>95</v>
+        <v>113</v>
       </c>
       <c r="M17">
-        <v>95</v>
+        <v>113</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1437,45 +1425,21 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>25</v>
+        <v>29</v>
       </c>
     </row>
     <row r="18" spans="1:17">
-      <c r="A18" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B18">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="C18">
-        <v>30</v>
-      </c>
-      <c r="D18">
-        <v>30</v>
-      </c>
-      <c r="E18">
-        <v>0</v>
-      </c>
-      <c r="F18">
-        <v>1</v>
-      </c>
-      <c r="G18" t="b">
-        <v>0</v>
-      </c>
-      <c r="H18">
-        <v>60</v>
-      </c>
       <c r="J18" s="1" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="K18">
-        <v>0.7872340425531915</v>
+        <v>0.7833333333333333</v>
       </c>
       <c r="L18">
-        <v>37</v>
+        <v>94</v>
       </c>
       <c r="M18">
-        <v>37</v>
+        <v>94</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1487,36 +1451,12 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>10</v>
+        <v>26</v>
       </c>
     </row>
     <row r="19" spans="1:17">
-      <c r="A19" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B19">
-        <v>0.291005291005291</v>
-      </c>
-      <c r="C19">
-        <v>55</v>
-      </c>
-      <c r="D19">
-        <v>55</v>
-      </c>
-      <c r="E19">
-        <v>0</v>
-      </c>
-      <c r="F19">
-        <v>1</v>
-      </c>
-      <c r="G19" t="b">
-        <v>0</v>
-      </c>
-      <c r="H19">
-        <v>134</v>
-      </c>
       <c r="J19" s="1" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="K19">
         <v>0.7777777777777778</v>
@@ -1541,32 +1481,8 @@
       </c>
     </row>
     <row r="20" spans="1:17">
-      <c r="A20" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B20">
-        <v>0.1984126984126984</v>
-      </c>
-      <c r="C20">
-        <v>50</v>
-      </c>
-      <c r="D20">
-        <v>50</v>
-      </c>
-      <c r="E20">
-        <v>0</v>
-      </c>
-      <c r="F20">
-        <v>1</v>
-      </c>
-      <c r="G20" t="b">
-        <v>0</v>
-      </c>
-      <c r="H20">
-        <v>202</v>
-      </c>
       <c r="J20" s="1" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="K20">
         <v>0.75</v>
@@ -1591,41 +1507,17 @@
       </c>
     </row>
     <row r="21" spans="1:17">
-      <c r="A21" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B21">
-        <v>0.1152815013404826</v>
-      </c>
-      <c r="C21">
-        <v>43</v>
-      </c>
-      <c r="D21">
-        <v>43</v>
-      </c>
-      <c r="E21">
-        <v>0</v>
-      </c>
-      <c r="F21">
-        <v>1</v>
-      </c>
-      <c r="G21" t="b">
-        <v>0</v>
-      </c>
-      <c r="H21">
-        <v>330</v>
-      </c>
       <c r="J21" s="1" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="K21">
-        <v>0.7450980392156863</v>
+        <v>0.7452830188679245</v>
       </c>
       <c r="L21">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="M21">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1637,21 +1529,21 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>13</v>
+        <v>27</v>
       </c>
     </row>
     <row r="22" spans="1:17">
       <c r="J22" s="1" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="K22">
-        <v>0.7358490566037735</v>
+        <v>0.7450980392156863</v>
       </c>
       <c r="L22">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="M22">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1663,21 +1555,21 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>28</v>
+        <v>13</v>
       </c>
     </row>
     <row r="23" spans="1:17">
       <c r="J23" s="1" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="K23">
-        <v>0.71875</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="L23">
-        <v>115</v>
+        <v>45</v>
       </c>
       <c r="M23">
-        <v>115</v>
+        <v>45</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1689,21 +1581,21 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>45</v>
+        <v>18</v>
       </c>
     </row>
     <row r="24" spans="1:17">
       <c r="J24" s="1" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="K24">
-        <v>0.7142857142857143</v>
+        <v>0.7125</v>
       </c>
       <c r="L24">
-        <v>45</v>
+        <v>114</v>
       </c>
       <c r="M24">
-        <v>45</v>
+        <v>114</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1715,21 +1607,21 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>18</v>
+        <v>46</v>
       </c>
     </row>
     <row r="25" spans="1:17">
       <c r="J25" s="1" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="K25">
-        <v>0.6702127659574468</v>
+        <v>0.6944444444444444</v>
       </c>
       <c r="L25">
-        <v>63</v>
+        <v>25</v>
       </c>
       <c r="M25">
-        <v>63</v>
+        <v>25</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1741,21 +1633,21 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>31</v>
+        <v>11</v>
       </c>
     </row>
     <row r="26" spans="1:17">
       <c r="J26" s="1" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="K26">
-        <v>0.6666666666666666</v>
+        <v>0.6914893617021277</v>
       </c>
       <c r="L26">
-        <v>24</v>
+        <v>65</v>
       </c>
       <c r="M26">
-        <v>24</v>
+        <v>65</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1767,21 +1659,21 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>12</v>
+        <v>29</v>
       </c>
     </row>
     <row r="27" spans="1:17">
       <c r="J27" s="1" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="K27">
-        <v>0.64</v>
+        <v>0.6458333333333334</v>
       </c>
       <c r="L27">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="M27">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1793,21 +1685,21 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="28" spans="1:17">
       <c r="J28" s="1" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="K28">
-        <v>0.6161879895561357</v>
+        <v>0.6318537859007833</v>
       </c>
       <c r="L28">
-        <v>236</v>
+        <v>242</v>
       </c>
       <c r="M28">
-        <v>236</v>
+        <v>242</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -1819,21 +1711,21 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>147</v>
+        <v>141</v>
       </c>
     </row>
     <row r="29" spans="1:17">
       <c r="J29" s="1" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="K29">
-        <v>0.6129032258064516</v>
+        <v>0.6176470588235294</v>
       </c>
       <c r="L29">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="M29">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -1845,21 +1737,21 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="30" spans="1:17">
       <c r="J30" s="1" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="K30">
-        <v>0.6041666666666666</v>
+        <v>0.6</v>
       </c>
       <c r="L30">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="M30">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -1871,21 +1763,21 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="31" spans="1:17">
       <c r="J31" s="1" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="K31">
-        <v>0.5882352941176471</v>
+        <v>0.6</v>
       </c>
       <c r="L31">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="M31">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -1897,21 +1789,21 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="32" spans="1:17">
       <c r="J32" s="1" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="K32">
-        <v>0.5823529411764706</v>
+        <v>0.5970588235294118</v>
       </c>
       <c r="L32">
-        <v>198</v>
+        <v>203</v>
       </c>
       <c r="M32">
-        <v>198</v>
+        <v>203</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -1923,21 +1815,21 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>142</v>
+        <v>137</v>
       </c>
     </row>
     <row r="33" spans="10:17">
       <c r="J33" s="1" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="K33">
-        <v>0.5777777777777777</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="L33">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="M33">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -1949,21 +1841,21 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>19</v>
+        <v>22</v>
       </c>
     </row>
     <row r="34" spans="10:17">
       <c r="J34" s="1" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="K34">
-        <v>0.5730337078651685</v>
+        <v>0.5581395348837209</v>
       </c>
       <c r="L34">
-        <v>51</v>
+        <v>24</v>
       </c>
       <c r="M34">
-        <v>51</v>
+        <v>24</v>
       </c>
       <c r="N34">
         <v>1</v>
@@ -1975,21 +1867,21 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>38</v>
+        <v>19</v>
       </c>
     </row>
     <row r="35" spans="10:17">
       <c r="J35" s="1" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="K35">
-        <v>0.5348837209302325</v>
+        <v>0.550561797752809</v>
       </c>
       <c r="L35">
-        <v>23</v>
+        <v>49</v>
       </c>
       <c r="M35">
-        <v>23</v>
+        <v>49</v>
       </c>
       <c r="N35">
         <v>1</v>
@@ -2001,21 +1893,21 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>20</v>
+        <v>40</v>
       </c>
     </row>
     <row r="36" spans="10:17">
       <c r="J36" s="1" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="K36">
-        <v>0.525</v>
+        <v>0.5428571428571428</v>
       </c>
       <c r="L36">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="M36">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="N36">
         <v>1</v>
@@ -2027,21 +1919,21 @@
         <v>0</v>
       </c>
       <c r="Q36">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="37" spans="10:17">
       <c r="J37" s="1" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="K37">
-        <v>0.5220338983050847</v>
+        <v>0.5238095238095238</v>
       </c>
       <c r="L37">
-        <v>154</v>
+        <v>22</v>
       </c>
       <c r="M37">
-        <v>154</v>
+        <v>22</v>
       </c>
       <c r="N37">
         <v>1</v>
@@ -2053,21 +1945,21 @@
         <v>0</v>
       </c>
       <c r="Q37">
-        <v>141</v>
+        <v>20</v>
       </c>
     </row>
     <row r="38" spans="10:17">
       <c r="J38" s="1" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="K38">
-        <v>0.5062761506276151</v>
+        <v>0.5068493150684932</v>
       </c>
       <c r="L38">
-        <v>121</v>
+        <v>37</v>
       </c>
       <c r="M38">
-        <v>121</v>
+        <v>37</v>
       </c>
       <c r="N38">
         <v>1</v>
@@ -2079,21 +1971,21 @@
         <v>0</v>
       </c>
       <c r="Q38">
-        <v>118</v>
+        <v>36</v>
       </c>
     </row>
     <row r="39" spans="10:17">
       <c r="J39" s="1" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="K39">
-        <v>0.5</v>
+        <v>0.5016949152542373</v>
       </c>
       <c r="L39">
-        <v>32</v>
+        <v>148</v>
       </c>
       <c r="M39">
-        <v>32</v>
+        <v>148</v>
       </c>
       <c r="N39">
         <v>1</v>
@@ -2105,21 +1997,21 @@
         <v>0</v>
       </c>
       <c r="Q39">
-        <v>32</v>
+        <v>147</v>
       </c>
     </row>
     <row r="40" spans="10:17">
       <c r="J40" s="1" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="K40">
-        <v>0.4931506849315068</v>
+        <v>0.4923076923076923</v>
       </c>
       <c r="L40">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="M40">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="N40">
         <v>1</v>
@@ -2131,21 +2023,21 @@
         <v>0</v>
       </c>
       <c r="Q40">
-        <v>37</v>
+        <v>33</v>
       </c>
     </row>
     <row r="41" spans="10:17">
       <c r="J41" s="1" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="K41">
-        <v>0.4923076923076923</v>
+        <v>0.4853556485355648</v>
       </c>
       <c r="L41">
-        <v>32</v>
+        <v>116</v>
       </c>
       <c r="M41">
-        <v>32</v>
+        <v>116</v>
       </c>
       <c r="N41">
         <v>1</v>
@@ -2157,21 +2049,21 @@
         <v>0</v>
       </c>
       <c r="Q41">
-        <v>33</v>
+        <v>123</v>
       </c>
     </row>
     <row r="42" spans="10:17">
       <c r="J42" s="1" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="K42">
-        <v>0.4761904761904762</v>
+        <v>0.4358974358974359</v>
       </c>
       <c r="L42">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="M42">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="N42">
         <v>1</v>
@@ -2183,21 +2075,21 @@
         <v>0</v>
       </c>
       <c r="Q42">
-        <v>22</v>
+        <v>44</v>
       </c>
     </row>
     <row r="43" spans="10:17">
       <c r="J43" s="1" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="K43">
-        <v>0.475</v>
+        <v>0.425531914893617</v>
       </c>
       <c r="L43">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="M43">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="N43">
         <v>1</v>
@@ -2209,21 +2101,21 @@
         <v>0</v>
       </c>
       <c r="Q43">
-        <v>21</v>
+        <v>27</v>
       </c>
     </row>
     <row r="44" spans="10:17">
       <c r="J44" s="1" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="K44">
-        <v>0.4487179487179487</v>
+        <v>0.421875</v>
       </c>
       <c r="L44">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="M44">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="N44">
         <v>1</v>
@@ -2235,12 +2127,12 @@
         <v>0</v>
       </c>
       <c r="Q44">
-        <v>43</v>
+        <v>37</v>
       </c>
     </row>
     <row r="45" spans="10:17">
       <c r="J45" s="1" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="K45">
         <v>0.3571428571428572</v>
@@ -2266,10 +2158,10 @@
     </row>
     <row r="46" spans="10:17">
       <c r="J46" s="1" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="K46">
-        <v>0.3278688524590164</v>
+        <v>0.2777777777777778</v>
       </c>
       <c r="L46">
         <v>20</v>
@@ -2287,21 +2179,21 @@
         <v>0</v>
       </c>
       <c r="Q46">
-        <v>41</v>
+        <v>52</v>
       </c>
     </row>
     <row r="47" spans="10:17">
       <c r="J47" s="1" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="K47">
-        <v>0.1653543307086614</v>
+        <v>0.1153846153846154</v>
       </c>
       <c r="L47">
-        <v>21</v>
+        <v>48</v>
       </c>
       <c r="M47">
-        <v>21</v>
+        <v>48</v>
       </c>
       <c r="N47">
         <v>1</v>
@@ -2313,21 +2205,21 @@
         <v>0</v>
       </c>
       <c r="Q47">
-        <v>106</v>
+        <v>368</v>
       </c>
     </row>
     <row r="48" spans="10:17">
       <c r="J48" s="1" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="K48">
-        <v>0.1339712918660287</v>
+        <v>0.1148325358851675</v>
       </c>
       <c r="L48">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="M48">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="N48">
         <v>1</v>
@@ -2339,21 +2231,21 @@
         <v>0</v>
       </c>
       <c r="Q48">
-        <v>362</v>
+        <v>370</v>
       </c>
     </row>
     <row r="49" spans="10:17">
       <c r="J49" s="1" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="K49">
-        <v>0.1057692307692308</v>
+        <v>0.1116279069767442</v>
       </c>
       <c r="L49">
-        <v>44</v>
+        <v>24</v>
       </c>
       <c r="M49">
-        <v>44</v>
+        <v>24</v>
       </c>
       <c r="N49">
         <v>1</v>
@@ -2365,21 +2257,21 @@
         <v>0</v>
       </c>
       <c r="Q49">
-        <v>372</v>
+        <v>191</v>
       </c>
     </row>
     <row r="50" spans="10:17">
       <c r="J50" s="1" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="K50">
-        <v>0.1023255813953488</v>
+        <v>0.09767441860465116</v>
       </c>
       <c r="L50">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="M50">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="N50">
         <v>1</v>
@@ -2391,21 +2283,21 @@
         <v>0</v>
       </c>
       <c r="Q50">
-        <v>193</v>
+        <v>194</v>
       </c>
     </row>
     <row r="51" spans="10:17">
       <c r="J51" s="1" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="K51">
-        <v>0.08837209302325581</v>
+        <v>0.06599552572706935</v>
       </c>
       <c r="L51">
-        <v>19</v>
+        <v>59</v>
       </c>
       <c r="M51">
-        <v>19</v>
+        <v>59</v>
       </c>
       <c r="N51">
         <v>1</v>
@@ -2417,21 +2309,21 @@
         <v>0</v>
       </c>
       <c r="Q51">
-        <v>196</v>
+        <v>835</v>
       </c>
     </row>
     <row r="52" spans="10:17">
       <c r="J52" s="1" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="K52">
-        <v>0.07829977628635347</v>
+        <v>0.06437291897891231</v>
       </c>
       <c r="L52">
-        <v>70</v>
+        <v>58</v>
       </c>
       <c r="M52">
-        <v>70</v>
+        <v>58</v>
       </c>
       <c r="N52">
         <v>1</v>
@@ -2443,47 +2335,47 @@
         <v>0</v>
       </c>
       <c r="Q52">
-        <v>824</v>
+        <v>843</v>
       </c>
     </row>
     <row r="53" spans="10:17">
       <c r="J53" s="1" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="K53">
-        <v>0.06441717791411043</v>
+        <v>0.06422018348623854</v>
       </c>
       <c r="L53">
         <v>21</v>
       </c>
       <c r="M53">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="N53">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="O53">
-        <v>0.05000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P53" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q53">
-        <v>305</v>
+        <v>306</v>
       </c>
     </row>
     <row r="54" spans="10:17">
       <c r="J54" s="1" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="K54">
-        <v>0.05549389567147614</v>
+        <v>0.04923076923076923</v>
       </c>
       <c r="L54">
-        <v>50</v>
+        <v>32</v>
       </c>
       <c r="M54">
-        <v>50</v>
+        <v>32</v>
       </c>
       <c r="N54">
         <v>1</v>
@@ -2495,47 +2387,47 @@
         <v>0</v>
       </c>
       <c r="Q54">
-        <v>851</v>
+        <v>618</v>
       </c>
     </row>
     <row r="55" spans="10:17">
       <c r="J55" s="1" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="K55">
-        <v>0.05392912172573189</v>
+        <v>0.04545454545454546</v>
       </c>
       <c r="L55">
-        <v>35</v>
+        <v>97</v>
       </c>
       <c r="M55">
-        <v>36</v>
+        <v>106</v>
       </c>
       <c r="N55">
-        <v>0.97</v>
+        <v>0.92</v>
       </c>
       <c r="O55">
-        <v>0.03000000000000003</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="P55" t="b">
         <v>1</v>
       </c>
       <c r="Q55">
-        <v>614</v>
+        <v>2037</v>
       </c>
     </row>
     <row r="56" spans="10:17">
       <c r="J56" s="1" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="K56">
-        <v>0.04272517321016166</v>
+        <v>0.03579676674364896</v>
       </c>
       <c r="L56">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="M56">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="N56">
         <v>0.97</v>
@@ -2547,79 +2439,79 @@
         <v>1</v>
       </c>
       <c r="Q56">
-        <v>829</v>
+        <v>835</v>
       </c>
     </row>
     <row r="57" spans="10:17">
       <c r="J57" s="1" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="K57">
-        <v>0.0355638745905475</v>
+        <v>0.02194964493221433</v>
       </c>
       <c r="L57">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="M57">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="N57">
-        <v>0.93</v>
+        <v>0.88</v>
       </c>
       <c r="O57">
-        <v>0.06999999999999995</v>
+        <v>0.12</v>
       </c>
       <c r="P57" t="b">
         <v>1</v>
       </c>
       <c r="Q57">
-        <v>2061</v>
+        <v>3030</v>
       </c>
     </row>
     <row r="58" spans="10:17">
       <c r="J58" s="1" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="K58">
-        <v>0.0183989670755326</v>
+        <v>0.02173913043478261</v>
       </c>
       <c r="L58">
-        <v>57</v>
+        <v>21</v>
       </c>
       <c r="M58">
-        <v>66</v>
+        <v>23</v>
       </c>
       <c r="N58">
-        <v>0.86</v>
+        <v>0.91</v>
       </c>
       <c r="O58">
-        <v>0.14</v>
+        <v>0.08999999999999997</v>
       </c>
       <c r="P58" t="b">
         <v>1</v>
       </c>
       <c r="Q58">
-        <v>3041</v>
+        <v>945</v>
       </c>
     </row>
     <row r="59" spans="10:17">
       <c r="J59" s="1" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="K59">
-        <v>0.009714822939517392</v>
+        <v>0.01064495929868503</v>
       </c>
       <c r="L59">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="M59">
         <v>41</v>
       </c>
       <c r="N59">
-        <v>0.76</v>
+        <v>0.83</v>
       </c>
       <c r="O59">
-        <v>0.24</v>
+        <v>0.17</v>
       </c>
       <c r="P59" t="b">
         <v>1</v>
